--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyoth\Desktop\Project Expo\01. Nutri Master\pdf_upload_website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyoth\Desktop\Project Expo\01. Nutri Master\05. Prototype\pdf_upload_website - v0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D42728-4151-41DF-8FD7-870CC6F83474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2BDAE8-B60A-4E57-96B0-96FE10E238D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" firstSheet="1" activeTab="4" xr2:uid="{DDAB6E23-A2F1-4D40-9F53-53AA7A4D5319}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" firstSheet="1" activeTab="3" xr2:uid="{DDAB6E23-A2F1-4D40-9F53-53AA7A4D5319}"/>
   </bookViews>
   <sheets>
     <sheet name="main_table" sheetId="4" r:id="rId1"/>
     <sheet name="alt_name_table" sheetId="3" r:id="rId2"/>
     <sheet name="param_table" sheetId="2" r:id="rId3"/>
     <sheet name="master_cea" sheetId="8" r:id="rId4"/>
-    <sheet name="nutrients_table" sheetId="11" r:id="rId5"/>
+    <sheet name="nutrients_table" sheetId="11" state="hidden" r:id="rId5"/>
     <sheet name="cause" sheetId="5" state="hidden" r:id="rId6"/>
     <sheet name="effect" sheetId="6" state="hidden" r:id="rId7"/>
     <sheet name="avoid" sheetId="7" state="hidden" r:id="rId8"/>
@@ -2228,7 +2228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2245,7 +2245,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3826,7 +3825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14961716-FBF1-462E-A2E8-37EFAA9F78B1}">
   <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -5012,14 +5011,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AF9953-ECA4-4E3A-AD14-CEDD824CD2B9}">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.3828125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.23046875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.3828125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.4">
